--- a/literature_research/FS_scopus/FS_network.xlsx
+++ b/literature_research/FS_scopus/FS_network.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Reconfiguring Food Systems Governance: The UNFSS and the Battle Over Authority and Legitimacy</t>
+          <t>Pampean agroecologies. Instituting eco-logics of local food production; [Agroecologías pampeanas. Eco-lógicas instituyentes de producción local de alimentos]</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The UN Food Systems Summit was an ambitious and hotly contested event that brought competing approaches to global food governance into relief. In this article, we unpack the rival visions that circulate around how food systems should be governed, focusing on two issues that we feel are at the heart of these divergences: authority and legitimacy. We illustrate how both corporate-philanthropic and food sovereignty networks are struggling to establish epistemic authority of food systems as well as produce legitimacy through very different approaches to participation and accountability. © 2021, Society for International Development.</t>
+          <t>In this paper we explore the anthropological question about “how” agroecology is produced, which will enable us to move from the inquiry into agroecology, in the singular and as a normative framework, towards agroecological practices, in the plural and anchored in the daily activities of people. We will put in the foreground the experiences of our interlocutors to characterize the ways of create and reproduce rural life and work in four establishments in the Pampas region of the province of Córdoba, Argentina, trying to mark the variability between them, as well as to extract some premises that constitute the logic that organizes and structures its production practices. It was identified that they operate an agro-eco-logic that puts the relations between species and entities in the primary activity at the center and allows to show a co-production of food. That network of relationships is a condition of possibility so that they can resist and exist, to create ways of living and working on the margins of agribusiness hegemony. Finally, we will reflect on the relationships that are established between agroecology and agribusiness. © 2021</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -620,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pampean agroecologies. Instituting eco-logics of local food production; [Agroecologías pampeanas. Eco-lógicas instituyentes de producción local de alimentos]</t>
+          <t>Rural revitalization, scholars, and the dynamics of the collective future in China</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -628,7 +628,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>In this paper we explore the anthropological question about “how” agroecology is produced, which will enable us to move from the inquiry into agroecology, in the singular and as a normative framework, towards agroecological practices, in the plural and anchored in the daily activities of people. We will put in the foreground the experiences of our interlocutors to characterize the ways of create and reproduce rural life and work in four establishments in the Pampas region of the province of Córdoba, Argentina, trying to mark the variability between them, as well as to extract some premises that constitute the logic that organizes and structures its production practices. It was identified that they operate an agro-eco-logic that puts the relations between species and entities in the primary activity at the center and allows to show a co-production of food. That network of relationships is a condition of possibility so that they can resist and exist, to create ways of living and working on the margins of agribusiness hegemony. Finally, we will reflect on the relationships that are established between agroecology and agribusiness. © 2021</t>
+          <t>Rural development in the Chinese state's strategy has been a changing political-economic problematic. The state has practiced a strategic essentialism with regard to ‘peasantry.' It has actively taken ‘peasantry' as a temporary unifying master-category while at the same time working with the differences within the category for the long-term goal of transformation. The post-Mao contradiction, emphasizing the protection of the ‘peasantry’ while encouraging differentiation, offers contemporary struggles both opportunity and frustration. This essay examines how the rural has been conceptualized in reform-era policies and discusses two cases of scholar activism, the rural reconstruction movement and the food sovereignty network in China. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -656,15 +656,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rural revitalization, scholars, and the dynamics of the collective future in China</t>
+          <t>Agro-ecological transition of agricultural production systems at imbabura province of Ecuador; [Transição agroecológica de sistemas de produção agrícola na província de imbabura Equador]; [Transición agroecológica de los sistemas de producción agrícola de la provincia de imbabura Ecuador]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rural development in the Chinese state's strategy has been a changing political-economic problematic. The state has practiced a strategic essentialism with regard to ‘peasantry.' It has actively taken ‘peasantry' as a temporary unifying master-category while at the same time working with the differences within the category for the long-term goal of transformation. The post-Mao contradiction, emphasizing the protection of the ‘peasantry’ while encouraging differentiation, offers contemporary struggles both opportunity and frustration. This essay examines how the rural has been conceptualized in reform-era policies and discusses two cases of scholar activism, the rural reconstruction movement and the food sovereignty network in China. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Transitional processes from conventional agricultural systems to agro ecological production systems has been promoted at Imbabura province in Ecuador, but development difficulties have been observed, due to farmer’s decisions for embracing transition, depends not only on the technology and local resources available, but also on several aspects of the surrounding social, economic and institutional system. A research was conducted, in order to characterize the transitional agro ecological degree of production systems at Imbabura province, regarding the social cooperation activity, the natural resources management and the public policies dynamics, A stratified random sample of 50 producers was taken, to whom a questionnaire was applied. Data was analyzed by descriptive statistics. Cramer test was used to determine the relationships of each item to municipalities. Results showed that, in social dynamics, there is a high degree of trust, participation and reciprocity but it is necessary to strengthen exchange networks, also, it was observed a high degree of agro ecological and conservationist practices. Agro ecological transition is limited by public policy dynamics because there are no incentive programs and also there are few institutional incentives to support agro ecological work, even though it is established by the current Food sovereignty law. Participation and used of self-harvest seeds were related to municipality. Otavalo is the municipality that displays greater dynamism and progress in the process of agro-ecological transition. © 2020, Universidad del Zulia. All rights reserved.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -692,7 +692,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Agro-ecological transition of agricultural production systems at imbabura province of Ecuador; [Transição agroecológica de sistemas de produção agrícola na província de imbabura Equador]; [Transición agroecológica de los sistemas de producción agrícola de la provincia de imbabura Ecuador]</t>
+          <t>Practices of Food Sovereignty in Italy and England: Short Food Supply Chains and the Promise of De-Commodification</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Transitional processes from conventional agricultural systems to agro ecological production systems has been promoted at Imbabura province in Ecuador, but development difficulties have been observed, due to farmer’s decisions for embracing transition, depends not only on the technology and local resources available, but also on several aspects of the surrounding social, economic and institutional system. A research was conducted, in order to characterize the transitional agro ecological degree of production systems at Imbabura province, regarding the social cooperation activity, the natural resources management and the public policies dynamics, A stratified random sample of 50 producers was taken, to whom a questionnaire was applied. Data was analyzed by descriptive statistics. Cramer test was used to determine the relationships of each item to municipalities. Results showed that, in social dynamics, there is a high degree of trust, participation and reciprocity but it is necessary to strengthen exchange networks, also, it was observed a high degree of agro ecological and conservationist practices. Agro ecological transition is limited by public policy dynamics because there are no incentive programs and also there are few institutional incentives to support agro ecological work, even though it is established by the current Food sovereignty law. Participation and used of self-harvest seeds were related to municipality. Otavalo is the municipality that displays greater dynamism and progress in the process of agro-ecological transition. © 2020, Universidad del Zulia. All rights reserved.</t>
+          <t>Alternative food networks are organisations of consumers and food producers that oversee and promote the functioning of short food supply chains, with the aim of fostering a direct and local exchange between producers and consumers. New short-chain economic infrastructures provide food producers – especially small-scale farmers – with a whole new set of commercial opportunities, directed towards the construction of an alternative food economy. But how does value circulate within these innovative economic platforms? And what values are debated, negotiated and exchanged through these circuits? Employing the analytical lenses of de-commodification and embeddedness, this article discusses the modalities and outcomes of the processes of value-creation and value-appropriation that spring out of the direct exchange occurring between consumers and food producers in the alternative food economy. Based on empirical data collected through extensive qualitative field research in Italy and England, the article exposes the dynamics and limits of the on-going processes of de-commodification, proposing an analysis centred on the concept of ‘partial’ de-commodification. This conceptual tool is used to assess the differences that emerged between the Italian and English fields, and to provide conclusive remarks about the potential of place- and culture-specific configurations of practices to advance a transformation of the food system. © 2019 The Authors. Sociologia Ruralis © 2019 European Society for Rural Sociology.</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Practices of Food Sovereignty in Italy and England: Short Food Supply Chains and the Promise of De-Commodification</t>
+          <t>Diverse seeds – shared practices: Conceptualizing seed commons</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Alternative food networks are organisations of consumers and food producers that oversee and promote the functioning of short food supply chains, with the aim of fostering a direct and local exchange between producers and consumers. New short-chain economic infrastructures provide food producers – especially small-scale farmers – with a whole new set of commercial opportunities, directed towards the construction of an alternative food economy. But how does value circulate within these innovative economic platforms? And what values are debated, negotiated and exchanged through these circuits? Employing the analytical lenses of de-commodification and embeddedness, this article discusses the modalities and outcomes of the processes of value-creation and value-appropriation that spring out of the direct exchange occurring between consumers and food producers in the alternative food economy. Based on empirical data collected through extensive qualitative field research in Italy and England, the article exposes the dynamics and limits of the on-going processes of de-commodification, proposing an analysis centred on the concept of ‘partial’ de-commodification. This conceptual tool is used to assess the differences that emerged between the Italian and English fields, and to provide conclusive remarks about the potential of place- and culture-specific configurations of practices to advance a transformation of the food system. © 2019 The Authors. Sociologia Ruralis © 2019 European Society for Rural Sociology.</t>
+          <t>Commons approaches in the seed sector are multi-faceted: They span from traditional seed systems, i.e. seed sharing networks, to recent anti-enclosure movements that resist intellectual property rights on varieties, like organic breeding initiatives. This paper derives a conceptualization of ‘Seed Commons’ at the local and regional level, based on a comprehensive transdisciplinary research process that integrates diverse types of knowledge, both from practitioners (German and Philippine seed initiatives, companies and NGOs), and the scientific community. As a result, we identify four core criteria that characterize diverse Seed Commons arrangements at local and regional scales: (1) collective responsibility, (2) protection from private enclosure, (3) collective, polycentric management, and (4) sharing of formal and practical knowledge. Discussing these Seed Commons criteria in the context of different Commons approaches, we find that Seed Commons transcend the distinction between traditional (natural resource) Commons and New Commons approaches, by integrating biophysical, informational and cultural elements in their collective governance. Reaching beyond resource characteristics, the Seed Commons criteria reflect practices of Commoning, which aim to fulfill social functions such as farmer empowerment and food sovereignty. © 2020 The Author(s).</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -764,7 +764,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Diverse seeds – shared practices: Conceptualizing seed commons</t>
+          <t>From hoes to story-telling as "weapons of the weak": Farmers' resistance to neoliberal 2007 multi-product management stabilization plan in Japan</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -772,7 +772,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Commons approaches in the seed sector are multi-faceted: They span from traditional seed systems, i.e. seed sharing networks, to recent anti-enclosure movements that resist intellectual property rights on varieties, like organic breeding initiatives. This paper derives a conceptualization of ‘Seed Commons’ at the local and regional level, based on a comprehensive transdisciplinary research process that integrates diverse types of knowledge, both from practitioners (German and Philippine seed initiatives, companies and NGOs), and the scientific community. As a result, we identify four core criteria that characterize diverse Seed Commons arrangements at local and regional scales: (1) collective responsibility, (2) protection from private enclosure, (3) collective, polycentric management, and (4) sharing of formal and practical knowledge. Discussing these Seed Commons criteria in the context of different Commons approaches, we find that Seed Commons transcend the distinction between traditional (natural resource) Commons and New Commons approaches, by integrating biophysical, informational and cultural elements in their collective governance. Reaching beyond resource characteristics, the Seed Commons criteria reflect practices of Commoning, which aim to fulfill social functions such as farmer empowerment and food sovereignty. © 2020 The Author(s).</t>
+          <t>While neoliberalism has promoted free trade, market rule, and productivist agriculture in the food production system, farmers and their unions in developed countries partially managed to shun the forces of neoliberalism. What are the underpinning strength and factors of such resilience? Discussions have concentrated at national policy and organizational level and tacit resistance at community and farm levels remain unexplored, inter alia from their historical embeddedness perspective. This study explores the way Japanese farmers frame their contemporary political situation with neoliberalism of the late 2000s with a grounded approach of face-to-face interview at a community level. The farmers resist it mobilizing Scott's anthropological notion of "Weapons of the Weak"through story-telling instead of hoes in ancient time (Scott JC, Weapons of the weak: everyday forms of peasant resistance, 1985). In concrete, the farmers resisted a neoliberal policy of Hinmoku Odanteki Keiei Antei Taisaku, or the Multi- Product Management Stabilization Plan (MPP), in the early 2000s, which promoted larger scale farming to pursue the efficiency of scale merits. The policy was first introduced in 2005 as a concept and dominated the agricultural policy scenes from 2007 to 2009, and then its influence disappeared toward 2010. The rise and fall of the concept and policy provide us with rare opportunity to examine the historical embeddedness of the farmers and their resistance to such neoliberal globalization. We conducted interviews with the leaders of cooperative farms and stakeholders in Daisen City, Akita Prefecture, Japan; the study found that farmers' framing of neoliberalism was ambivalent causing partial adoption and resistance. The leaders of the cooperative farms could form the cooperative farms but thought further development difficult because members intended to keep their farming independent. Close frame and discourse analysis revealed that farmers in Japan could express their frustration on neoliberal discourse and policy through multiple tactics of "Weapons of the Weak"by complaining to the leaders, miscalculating the figures, or claiming family-based food sovereignty that "we produce what goes into our family mouths."Such tactics procrastinated the process and eventually stopped the policy. The incident demonstrates how farmers in the network can slow the progress of neoliberal discourse and policy implementation. From the analysis, the notion of "Weapons of the Weak"can be applied as a part of the combination with farmers' historical embeddedness, symbolism of foods, framing, and electoral resistance.  © 2020 The Author(s).</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -800,15 +800,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PREFIGURATIVE POLITICS IN PRACTICE: CONCRETE UTOPIAS IN ITALY'S FOOD SOVEREIGNTY ACTIVISM</t>
+          <t>Social change for sustainable localised food sovereignty: Convergence between prosumers and ethical entrepreneurs*</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>What and how we eat have once again become prominent in debates on the fight for global justice. Proponents of alterglobalism consider experiments with food sovereignty a prefigurative practice that anticipates broader ecocultural change. Critics, however, remain skeptical about its capacity to enhance social change. In social movement research, the practical implications of these prefigurative politics have rarely been investigated empirically. Based on an ethnographic analysis, this article illustrates the multifaceted dynamics of a continuously evolving experiment with Participatory Guarantee Systems (PGS) in a neorural microeconomic network, a cornerstone of food sovereignty activism. An ethnographic perspective can grasp the shifting terrain of the political mobilization, frictions and unintended consequences of these types of politics. The article demonstrates the importance of understanding the complexities of prefiguration as not a simple linear, coherent process. Also, the case study allows a critique of re-emerging neorural populism.  © 2020 Mobilization: An International Quarterly.</t>
+          <t>Some resourceful community-driven initiatives for local food production and retail have recently appeared in Luxembourg, where low organic agricultural rates are paradoxically paired with high consumer demands. This niche of social innovators combines agro-ecology with circular economy practices. Four cases of alternative food networks are presented here – studied with qualitative interviews and participant observation. One was established in the 1980s and has about 200 employees, partly linked to social assistance. The more recent and smaller initiatives are characterised by cooperative governance, a community-supported agricultural outlook, hands-on workshops and time banks, all enabled by social media. These initiatives are more radical in their agro-ecological or permaculture practices, focusing on regenerative land use without relying on imports and fostering the integration of consumers with varying degrees of prosumer involvement. This politicised step goes further than mere (and possibly industrialised) organic production. It represents a cultural shift in the food system by attracting media and policy interest, diverting attention away from individuals and focusing instead on the collective efforts that are necessary to build a more resilient food system. Copyright © FrancoAngeli</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -836,15 +836,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>From hoes to story-telling as "weapons of the weak": Farmers' resistance to neoliberal 2007 multi-product management stabilization plan in Japan</t>
+          <t>Traditional seed and exchange systems cement social relations and provide a safety net: A case study from KwaZulu-Natal, South Africa</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>While neoliberalism has promoted free trade, market rule, and productivist agriculture in the food production system, farmers and their unions in developed countries partially managed to shun the forces of neoliberalism. What are the underpinning strength and factors of such resilience? Discussions have concentrated at national policy and organizational level and tacit resistance at community and farm levels remain unexplored, inter alia from their historical embeddedness perspective. This study explores the way Japanese farmers frame their contemporary political situation with neoliberalism of the late 2000s with a grounded approach of face-to-face interview at a community level. The farmers resist it mobilizing Scott's anthropological notion of "Weapons of the Weak"through story-telling instead of hoes in ancient time (Scott JC, Weapons of the weak: everyday forms of peasant resistance, 1985). In concrete, the farmers resisted a neoliberal policy of Hinmoku Odanteki Keiei Antei Taisaku, or the Multi- Product Management Stabilization Plan (MPP), in the early 2000s, which promoted larger scale farming to pursue the efficiency of scale merits. The policy was first introduced in 2005 as a concept and dominated the agricultural policy scenes from 2007 to 2009, and then its influence disappeared toward 2010. The rise and fall of the concept and policy provide us with rare opportunity to examine the historical embeddedness of the farmers and their resistance to such neoliberal globalization. We conducted interviews with the leaders of cooperative farms and stakeholders in Daisen City, Akita Prefecture, Japan; the study found that farmers' framing of neoliberalism was ambivalent causing partial adoption and resistance. The leaders of the cooperative farms could form the cooperative farms but thought further development difficult because members intended to keep their farming independent. Close frame and discourse analysis revealed that farmers in Japan could express their frustration on neoliberal discourse and policy through multiple tactics of "Weapons of the Weak"by complaining to the leaders, miscalculating the figures, or claiming family-based food sovereignty that "we produce what goes into our family mouths."Such tactics procrastinated the process and eventually stopped the policy. The incident demonstrates how farmers in the network can slow the progress of neoliberal discourse and policy implementation. From the analysis, the notion of "Weapons of the Weak"can be applied as a part of the combination with farmers' historical embeddedness, symbolism of foods, framing, and electoral resistance.  © 2020 The Author(s).</t>
+          <t>Millions of small-scale farmers on the African continent save and exchange the seed of their traditional crops, yet the social and cultural values of these systems remain under-researched. Through ethnographic research conducted in the KwaZulu-Natal Province of South Africa, this study sets out to improve understanding about the mechanisms and significance of traditional seed exchange networks. Findings suggest that traditional crops are central; their seed is highly valued; and systems of exchange play complex and nuanced roles. Critical for food sovereignty, these systems act as a back-up in the case of harvest failure, and enhance social cohesion through strengthening community and familial ties. © 2017 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -872,7 +872,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Social change for sustainable localised food sovereignty: Convergence between prosumers and ethical entrepreneurs*</t>
+          <t>Building sustainable social and solidarity economies: Place-based and network-based strategies of alternative development organizations in India</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -880,7 +880,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Some resourceful community-driven initiatives for local food production and retail have recently appeared in Luxembourg, where low organic agricultural rates are paradoxically paired with high consumer demands. This niche of social innovators combines agro-ecology with circular economy practices. Four cases of alternative food networks are presented here – studied with qualitative interviews and participant observation. One was established in the 1980s and has about 200 employees, partly linked to social assistance. The more recent and smaller initiatives are characterised by cooperative governance, a community-supported agricultural outlook, hands-on workshops and time banks, all enabled by social media. These initiatives are more radical in their agro-ecological or permaculture practices, focusing on regenerative land use without relying on imports and fostering the integration of consumers with varying degrees of prosumer involvement. This politicised step goes further than mere (and possibly industrialised) organic production. It represents a cultural shift in the food system by attracting media and policy interest, diverting attention away from individuals and focusing instead on the collective efforts that are necessary to build a more resilient food system. Copyright © FrancoAngeli</t>
+          <t>This article critically examines and analyzes place-based as well as network-based strategies of alternative development organizations that claim to be building sustainable social and solidarity economies (SSE) in the political context of neoliberal globalization. While the Indian state and market forces are actively promoting the neoliberal agri-food system, alternative development organizations are working with farmers to build the SSE based on the principles of democracy, inclusiveness, reciprocity, cooperativism, and socioecological sustainability. Using a case study approach, this article analyzes how SSE initiatives are aiming to reclaim control over the local agri-food sector. Specifically, this article examines how community development organizations mobilize farmers based on the principles of agro-ecology and the politics of seed and food sovereignties. This article uses the Center for Sustainable Agriculture, an alternative community development organization in south India, as a case study. © 2017 Community Development Society.</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -908,15 +908,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Food security and food sovereignty in West Africa</t>
+          <t>Community context of food justice: Reflections on a free local produce program in a New Orleans food desert</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The paper analyzes the evolution of food security in West Africa during the last 25 years. The Millennium Development Goal One aims at halving the proportion of people who suffer from hunger by 2015. Although Sub-Saharan Africa remains far from reaching the hunger target, West Africa presents a better situation, with eight countries that will meet the target. The paper focuses on international food trade, analyzing the recent growth of food imports in West Africa and the impact of this growth on food security. The last part of the paper is focused on the case of Benin: the country achieved an important reduction in undernourishment since 1990. The analysis aims to highlight the role of short food supply chains in rural development and therefore in food security strategies. The department of Atacora, in northern Benin, is used as a case study to show the recent evolution of local food networks in a region traditionally characterized by an export-oriented agriculture. In conclusion the paper highlights the link between food security, international trade, and local food networks, showing the potential of the ‘food sovereignty’ paradigm in understanding the geographies of food in West Africa. © 2016 The African Specialty Group of the American Association of Geographers.</t>
+          <t>Food justice discourse has emerged partly in response to the critique of alternative food networks during the last decade, but its justice conceptualization tends to be too narrowly focused on food-related injustices rather than broader social injustices that shape food access and food sovereignty, a gap we address. Our analysis of a semi-experimental free local food program we administered in a New Orleans food desert demonstrates that several community context factors shape the residents' access to a local food market in this neighborhood: fragmented social ties, digital and generational divides, perpetual infrastructural failure, and the location of the market within the neighborhood. We argue that food justice discourse needs to incorporate social and cultural community contexts in its operationalization of food access and sovereignty, especially regarding how the latter concept is defined and executed in practice. © 2017 Laura McKinney et al.</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -944,15 +944,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Traditional seed and exchange systems cement social relations and provide a safety net: A case study from KwaZulu-Natal, South Africa</t>
+          <t>‘Rescaling’ alternative food systems: from food security to food sovereignty</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Millions of small-scale farmers on the African continent save and exchange the seed of their traditional crops, yet the social and cultural values of these systems remain under-researched. Through ethnographic research conducted in the KwaZulu-Natal Province of South Africa, this study sets out to improve understanding about the mechanisms and significance of traditional seed exchange networks. Findings suggest that traditional crops are central; their seed is highly valued; and systems of exchange play complex and nuanced roles. Critical for food sovereignty, these systems act as a back-up in the case of harvest failure, and enhance social cohesion through strengthening community and familial ties. © 2017 Taylor &amp; Francis.</t>
+          <t>In this paper, we critically interrogate the benefits of an interdisciplinary and theoretically diverse dialogue between ‘local food’ and ‘alternative food networks’ (AFNs) and outline how this dialogue might be enriched by a closer engagement with discourses of food sovereignty and the politics of scale. In arguing for a shift towards a greater emphasis on food sovereignty, we contend that contemporary discourses of food security are inadequate for the ongoing task of ensuring a just and sustainable economy of food. Further, rather than treating the local and the global as ontologically given categories around which to contest the politics of food, it is our contention that recognising the socio-spatial aspects of the politics of scale has the potential to reinvigorate discourses of food security, food sovereignty and AFNs. Understanding scale as both fixed to a degree as well as contingent and dynamic has implications for an understanding of the role of food systems, for how the rescaled state privileges certain food systems and the possibilities for resistance through ‘jumping scale’ and food utopias. All of these aspects are significant if we are to fully comprehend and contest the challenges of envisioning and enacting real utopias of food sovereignty. © 2015, Springer Science+Business Media Dordrecht.</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -980,15 +980,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Building sustainable social and solidarity economies: Place-based and network-based strategies of alternative development organizations in India</t>
+          <t>Farmer seed networks make a limited contribution to agriculture? Four common misconceptions</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>This article critically examines and analyzes place-based as well as network-based strategies of alternative development organizations that claim to be building sustainable social and solidarity economies (SSE) in the political context of neoliberal globalization. While the Indian state and market forces are actively promoting the neoliberal agri-food system, alternative development organizations are working with farmers to build the SSE based on the principles of democracy, inclusiveness, reciprocity, cooperativism, and socioecological sustainability. Using a case study approach, this article analyzes how SSE initiatives are aiming to reclaim control over the local agri-food sector. Specifically, this article examines how community development organizations mobilize farmers based on the principles of agro-ecology and the politics of seed and food sovereignties. This article uses the Center for Sustainable Agriculture, an alternative community development organization in south India, as a case study. © 2017 Community Development Society.</t>
+          <t>The importance of seed provisioning in food security and nutrition, agricultural development and rural livelihoods, and agrobiodiversity and germplasm conservation is well accepted by policy makers, practitioners and researchers. The role of farmer seed networks is less well understood and yet is central to debates on current issues ranging from seed sovereignty and rights for farmers to GMOs and the conservation of crop germplasm. In this paper we identify four common misconceptions regarding the nature and importance of farmer seed networks today. (1) Farmer seed networks are inefficient for seed dissemination. (2) Farmer seed networks are closed, conservative systems. (3) Farmer seed networks provide ready, egalitarian access to seed. (4) Farmer seed networks are destined to weaken and disappear. We challenge these misconceptions by drawing upon recent research findings and the authors' collective field experience in studying farmer seed systems in Africa, Europe, Latin America and Oceania. Priorities for future research are suggested that would advance our understanding of seed networks and better inform agricultural and food policy. © 2015 The Authors. Published by Elsevier Ltd.</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1016,15 +1016,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The Evolution of Food Security Governance and Food Sovereignty Movement in China: An Analysis from the World Society Theory</t>
+          <t>Monitoring of food security in the Russian Federation: Methodology and assessment</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Originating in a 1983 Mexican Government Program, the term ‘food sovereignty’ was coined in 1996 by La Via Campesina—a global peasant network—to address concerns within the civil society for food security. Rather than to accept the neoliberal framework of mainstream food security definition and governance, the food sovereignty movement seeks to view food security as the right of peoples to define their own food and agriculture systems with limited corporation intervention. As a result, food production should be geared toward the domestic and local markets and not toward international trade that only benefits corporations. This food sovereignty movement was inducted into China in 2013 just as China’s agricultural systems were shifting toward a more corporate-centric structure that increasingly exploits the small-scale farmers. A question was hence raised: How have the global civil society networks influenced the Chinese civil society and promoted China’s local food sovereignty movement? Through the world society theory, the author has identified social forums, such as international conferences and social media channels, as an expedient means for interactions. However, as the Chinese government continues to develop a corporate-centric food security governance system and tighten its civil society space, the impacts of China’s food sovereignty movement remain unclear. © 2017, Springer Science+Business Media B.V.</t>
+          <t>The paper presents the results of food security research in the Russia Federation. Providing food security and country's independence becomes the core of keeping the national sovereignty under conditions of globalization and integration processes development. It determined the research relevance. The purpose of the research is the development of a new methodological approach to monitoring of food security as one of most important components of an efficient protection system of the latter. Integrative reproduction approach to monitoring of country's food security meeting stability criteria, economic and social ecological efficiency, competitive ability and safety is suggested. The composition of indicators arranged in four groups is developed within the framework of such approach in order to carry out all-round monitoring of Russian Federation's food security: agroindustrial complex production capacity and its efficient use; food accessibility; food affordability; food quality and level. The assessment of Russian Federation's agriculture facilities, agricultural products output dynamics, agricultural raw materials and provisions export and import, level of staple foods consumption by the population and Russians' diet is given based on indicative analysis. The main threats to Russia's food security are revealed (productive powers deindustrialization; low level of investment to the agricultural sector; labour force reduction; increase in dependence on imported foodstuff; population's low income level and living standards, etc.) Recommendations regarding Russian Federation's food security level increase are given (carrying out augmented technologic modernization, establishing a brand new enterprise network, development of associations and cooperatives, increase in government control combined with agricultural producers' business activity, development of market forms of cooperation and integration).</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1052,15 +1052,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Community context of food justice: Reflections on a free local produce program in a New Orleans food desert</t>
+          <t>Rebalance power and strengthen farmers’ position in the EU food system? A CDA of the Farm to Fork Strategy</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Food justice discourse has emerged partly in response to the critique of alternative food networks during the last decade, but its justice conceptualization tends to be too narrowly focused on food-related injustices rather than broader social injustices that shape food access and food sovereignty, a gap we address. Our analysis of a semi-experimental free local food program we administered in a New Orleans food desert demonstrates that several community context factors shape the residents' access to a local food market in this neighborhood: fragmented social ties, digital and generational divides, perpetual infrastructural failure, and the location of the market within the neighborhood. We argue that food justice discourse needs to incorporate social and cultural community contexts in its operationalization of food access and sovereignty, especially regarding how the latter concept is defined and executed in practice. © 2017 Laura McKinney et al.</t>
+          <t>The Farm to Fork (F2F) Strategy at the heart of the European Union’s Green Deal set out to create a “just transition” towards a sustainable food system, with benefits for all actors. We conducted a critical discourse analysis (CDA) to explore discourses around power in the food system and farmers’ position in the communication and implementation of the Farm to Fork Strategy. Discourse analysis encapsulates various scientific methodologies for deciphering the meaning behind the creation and communication of different forms of language and identify power dynamics, amongst other aspects. We identified two prior discourses in one of the objectives of the European Union’s new Common Agricultural Policy (2023-27). Our analysis found that the discourses, namely “rebalance power in food system” and “strengthening farmers’ position in value chains,” are marginalized in favour of an innovation-investment discourse, indicative of greater financialization and technologization based on techno-finances fixes in transforming the European Union agri-food system. We argue that entities representing agri-business interests have been influential in the policymaking process and voices representing smallholder and medium-sized farmers’ transformational discourses have been excluded. © The Author(s) 2023.</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1088,15 +1088,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>‘Rescaling’ alternative food systems: from food security to food sovereignty</t>
+          <t>Building the intrinsic infrastructure of agroecology: collectivising to deal with the problem of the state</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>In this paper, we critically interrogate the benefits of an interdisciplinary and theoretically diverse dialogue between ‘local food’ and ‘alternative food networks’ (AFNs) and outline how this dialogue might be enriched by a closer engagement with discourses of food sovereignty and the politics of scale. In arguing for a shift towards a greater emphasis on food sovereignty, we contend that contemporary discourses of food security are inadequate for the ongoing task of ensuring a just and sustainable economy of food. Further, rather than treating the local and the global as ontologically given categories around which to contest the politics of food, it is our contention that recognising the socio-spatial aspects of the politics of scale has the potential to reinvigorate discourses of food security, food sovereignty and AFNs. Understanding scale as both fixed to a degree as well as contingent and dynamic has implications for an understanding of the role of food systems, for how the rescaled state privileges certain food systems and the possibilities for resistance through ‘jumping scale’ and food utopias. All of these aspects are significant if we are to fully comprehend and contest the challenges of envisioning and enacting real utopias of food sovereignty. © 2015, Springer Science+Business Media Dordrecht.</t>
+          <t>Corporate actors in capitalist food systems continue to consolidate ownership of the means of production in ever fewer hands, posing a critical barrier to food sovereignty and to an agroecological transition. Further, corporate influence on the state is often direct and blatant, but there are also more insidious governance barriers– hegemonic structures of power and ‘common sense’ theories of value that exclude smallholders and local communities from participation in decision-making processes. This is especially pertinent in land use planning and in building processing facilities, usually referred to as ‘value chain infrastructure’, or what I call the ‘intrinsic infrastructure of agroecology’. Using a case study approach, I evaluate the successes and failures of two campaigns for agrarian reform in the Australian state of Victoria, concluding that civil society must act collectively to gain the thick legitimacy needed to work with the state to enact enabling policies for an agroecological transition. © The Author(s) 2024.</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1124,15 +1124,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Farmer seed networks make a limited contribution to agriculture? Four common misconceptions</t>
+          <t>Localization of the corporate food regime and the food sovereignty movement: taiwan’s food sovereignty movement under “third regionalism”</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The importance of seed provisioning in food security and nutrition, agricultural development and rural livelihoods, and agrobiodiversity and germplasm conservation is well accepted by policy makers, practitioners and researchers. The role of farmer seed networks is less well understood and yet is central to debates on current issues ranging from seed sovereignty and rights for farmers to GMOs and the conservation of crop germplasm. In this paper we identify four common misconceptions regarding the nature and importance of farmer seed networks today. (1) Farmer seed networks are inefficient for seed dissemination. (2) Farmer seed networks are closed, conservative systems. (3) Farmer seed networks provide ready, egalitarian access to seed. (4) Farmer seed networks are destined to weaken and disappear. We challenge these misconceptions by drawing upon recent research findings and the authors' collective field experience in studying farmer seed systems in Africa, Europe, Latin America and Oceania. Priorities for future research are suggested that would advance our understanding of seed networks and better inform agricultural and food policy. © 2015 The Authors. Published by Elsevier Ltd.</t>
+          <t>Third regionalism explains the liberalization of trade centered around the Asia-Pacific region in the 21st century. Under regionalism, domestic agricultural markets that formerly enjoyed national food-security policies have loosened. This caused traditional domestic farmers’ organizations to become more regionally interconnected, forming a food sovereignty movement under the auspices of La Via Campesina. Localized food-production chains are promoted to mitigate the impact of regionalism on the Asia-Pacific agricultural sector. The Taiwan Rural Front (TRF) joined La Via Campesina and the food sovereignty movement in the 2010s. During the process of adopting regionalism, Taiwanese agricultural trade and technologies were protected by public agencies and state-owned enterprises. This context differs from that of Southeast Asia, where the food sovereignty movement has thrived. Therefore, the following question is raised: Why was it possible for the food sovereignty movement to originate in Taiwan? This paper describes the developmental characteristics of Taiwan’s food-security governance mechanism as a state-guided corporate food regime amid third regionalism. Further, the TRF does not advocate for localized food-production chains. Due to the formation of a state-guided corporate food regime, the food sovereignty movement has become connected with farmland protection movements that set the Taiwanese sovereignty movement apart. © 2022 Association for the Study of Food and Society.</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1160,31 +1160,211 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Monitoring of food security in the Russian Federation: Methodology and assessment</t>
+          <t>The Rise of Asia-Pacific Agribusiness in the Global South—The Corporate Food Regime Under the Third Regionalism</t>
         </is>
       </c>
       <c r="C21" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Food regime theory asserts that the Global North has controlled food production chains since the 1800s, establishing a corporate food regime in the late 1980s. Through liberalization, Northern food corporations became powerful, leading the contemporary food regime and even replacing states. However, Global South corporations in the Asia-Pacific have grown to become important players in corporate food regimes. Through a literature review, content analysis, and interviews, this study leverages Third Regionalism as the theoretical approach to supplement the food regime theory, and explains how Third Regionalism featured free trade agreements established by Asia-Pacific countries, and how it supported the rapid rise of Southern food corporations. Regionalism helped Asia-Pacific Southern corporations become important figures in the contemporary corporate food regime, reinforcing the Global South’s food security and the livelihood sovereignty aspect of food sovereignty. The stances of Global South food sovereignty groups toward genetically modified crops are shifting and worthy of continued consideration. © The Author(s) 2023.</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>National general truck drivers' strike and food security in a Brazilian metropolis</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Objective: We analysed the impact of the national general truck drivers' strike on the availability, variety and price of foods sold by a food supply centre.Design: Descriptive study using secondary data to examine the percentage change in the mean price of fruits, vegetables and eggs before, during and after the strike. The strike in Brazil lasted 10 d from 21 to 30 May 2018. The drivers were on strike in order to make diesel oil tax-free and to obtain better working conditions.Setting: The food supply centre, named CEASA-Minas Grande BH, was located in the metropolitan area of a Brazilian city.Participants: We examined twenty types of foods.Results: After 10 d, there was a ~30 % reduction in the availability of all types of foods and prices increased. Foods with the highest price increases included cabbage (233·3 %), potatoes (220·0 %), papaya (160·0 %) and oranges (78·6 %). At the end of the strike, we observed reductions in the price of eggs, fruits, vegetables, roots and tubers; however, some foods remained more expensive than before the strike, including chayote (203·2 % higher), cucumber (66·7 % higher) and potatoes (60·0 % higher).Conclusions: The general truck drivers' strike was correlated with a reduction in the availability of food and, consequently, increases in price and possibly restrictions on access. The strike demonstrated the dependence of metropolises on road transportation and the conventional market. We speculate that initiatives aiming to shorten the food supply chain and promote food sovereignty and resilience of the supply circuits could be important. © The Authors 2019.</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Beyond the “special period”: land reform, supermarkets and the prospects for peasant-driven food sovereignty in post-socialist Cuba (2008–2017)</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>When Cuba’s trade-based food security strategy was threatened by the collapse of the socialist trading block in 1989–1991, the popular response of small and irregular farmers proved vital in providing a minimum food basket during the ensuing crisis. In 2008, a large-scale land reform sought to expand this development towards food sovereignty. We evaluate the reform impacts, finding that after an initial surge in 2009–2010, food production and land use have rebounded and stagnated at pre-reform levels. Peasant-led agricultural development is forestalled by inaccessibility of appropriate technologies, perceived land tenure insecurity, missing/deficient markets and competition from import-based supermarket chains. © 2019, © 2019 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Neo-developmentalism and a “vía campesina” for rural development: Unreconciled projects in Ecuador's Citizen's Revolution</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>From the outside, it appears that the government of President Rafael Correa in Ecuador has put in place a legal and policy framework for a vía campesina model of rural development, inspired by food sovereignty and buen vivir. Recent studies have, however, concluded that a considerable disjuncture exists between this framework and the actual agricultural policies and programmes implemented by the government. In this paper, I provide a broad overview of the agricultural and rural development policies under the Correa government and analyse some of the causes of the gap between the policy framework and policy implementation. I argue that Ecuador under Correa speaks to the difficulties of reconciling a vía campesina approach to rural development with a neo-developmental economic model. I focus on several issues in particular in order to explain the disjuncture: how the growth of “vía campesina” proposals and political discourse in Ecuador since the 1980s coincided with significant processes of agrarian change; the transformation of rural social movement federations from a sociopolitical force into a political/electoral force and the subsequent decline of these movements; and the deepening integration of small-scale producers into domestic agribusiness commodity chains and the growth of national agribusiness firms during the Correa government. © 2017 John Wiley &amp; Sons Ltd</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Codesigning a resilient food system</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>2016</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>The paper presents the results of food security research in the Russia Federation. Providing food security and country's independence becomes the core of keeping the national sovereignty under conditions of globalization and integration processes development. It determined the research relevance. The purpose of the research is the development of a new methodological approach to monitoring of food security as one of most important components of an efficient protection system of the latter. Integrative reproduction approach to monitoring of country's food security meeting stability criteria, economic and social ecological efficiency, competitive ability and safety is suggested. The composition of indicators arranged in four groups is developed within the framework of such approach in order to carry out all-round monitoring of Russian Federation's food security: agroindustrial complex production capacity and its efficient use; food accessibility; food affordability; food quality and level. The assessment of Russian Federation's agriculture facilities, agricultural products output dynamics, agricultural raw materials and provisions export and import, level of staple foods consumption by the population and Russians' diet is given based on indicative analysis. The main threats to Russia's food security are revealed (productive powers deindustrialization; low level of investment to the agricultural sector; labour force reduction; increase in dependence on imported foodstuff; population's low income level and living standards, etc.) Recommendations regarding Russian Federation's food security level increase are given (carrying out augmented technologic modernization, establishing a brand new enterprise network, development of associations and cooperatives, increase in government control combined with agricultural producers' business activity, development of market forms of cooperation and integration).</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Global changes, especially the progression of climate change, create a plethora of adaptation needs for social-ecological systems. With increasing uncertainty, more resilient food systems that are able to adapt and shape their operations in response to emerging challenges are required. Most of the research on this subject has been focused on developing countries; however, developed countries also face increasing environmental, economic, and social pressures. Because food systems are complex and involve multiple actors, using codesign might be the most productive way to develop desirable system characteristics. For this study, we engaged food system actors in a scenario-planning exercise to identify means of building more resilient food systems. In particular, the actors focused on determinants of adaptive capacity in developed countries, with Finland as a case study. The brainstorming session followed by a two-round Delphi study raised three main characteristics for effective food system resilience, namely, energy and nutrient sovereignty, transparency and dialogue in the food chain, and continuous innovativeness and evidence-based learning. In addition, policy interventions were found instrumental for supporting such food system resilience. The main actor-specific determinants of adaptive capacity identified included the farmers’ utilization of agri-technology and expertise; energy and logistic efficiency of the input and processing industry; and for retail, communication to build consumer trust and environmental awareness, and effective use of information and communication technology. Of the food system actors, farmers and the processing industry were perceived to be the closest to reaching the limits of their adaptive capacities. The use of adaptive capacity as a proxy seemed to concretize food system resilience effectively. Our study suggests that the resilience approach generates new perspectives that can guide actors in developing food systems that are adaptive in uncertainty. © 2016 by the author(s).</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Value chain governance and governmentality of horticultural exporters by developing economies: A perspective of Kenya's fresh fruits and vegetable export sector</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>The domain of governance has largely been extolled by Nations, States or governmental and intergovernmental actors especially in upholding Nations' sovereignty and values. While this still holds, governance complexity has been reinforced by establishment of global value chains such as in food and agriculture commodities increasingly being influenced and controlled by non-state actors in different parts of the world by both corporate and retail actors through private governance mechanisms. These mechanisms often fall short of universal standards and the resultant effect is ramified through proliferation of standards that result to state of governance that is constantly being redefined as 'codes of colours'. This paper thus seeks for an alternate dimension based on Foucault's governmentality theory. The quest for this overarching theory is based on its mediatory role that regulates the excesses of private interests in regulations while not prioritizing any state's sovereignty but views governance inclusively to both the State and non-state actors; this view promotes the broader understating of global value chains in the global economy of the 21st century. The paper's methodology is based on literature review pertinent to governance theory, value chain governance, governmentality as its key variables in light of the agrifood sector. It applies the value chain discourse and governmentatity in light of the Kenya's Horticultural export and strategic positioning to the EU market. This paper's novelty in light of the discourse and building on the body of knowledge and for the plausible ways and means to re-articulate value chain governance in the global economy while creating a viable alternative between the States, and Non-State actors for the benefit of both the upstream agents and downstream customers.</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>_</t>
         </is>
